--- a/FW650_old_from_ChangSha.xlsx
+++ b/FW650_old_from_ChangSha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>FW650长沙打标签功能总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,11 +136,6 @@
   </si>
   <si>
     <t>3.格式1： 17字节托利多连续输出格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.格式2：连续输出称重记录，格式见说明书
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.箱标签上显示几卷重量由每箱卷数参数控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.箱号每次自动加1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +268,19 @@
   </si>
   <si>
     <t>1.连续输出，输出格式为17字节托利多连续输出格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.格式2：连续输出称重记录，格式见说明书（重要，必须一致）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.所有物料通过下拉框进行选择，管理员负责预置物料信息（客户想法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.箱标签上显示几卷重量由每箱卷数参数控制，且只从最新记录开始显示，打印完成即去除这几卷，不需要则不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +344,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,22 +405,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -899,8 +916,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5274310</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1367,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1380,11 +1397,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3">
@@ -1392,8 +1409,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>50</v>
+      <c r="A3" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
@@ -1401,49 +1418,51 @@
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1455,51 +1474,51 @@
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="27" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1512,57 +1531,57 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="41" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1575,50 +1594,50 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="55" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1633,50 +1652,50 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="71" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1690,53 +1709,53 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="12"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="12"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7"/>
@@ -1757,131 +1776,131 @@
       <c r="A91" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="10"/>
+      <c r="B92" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A93" s="9"/>
-      <c r="B93" s="12" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="9"/>
-      <c r="B94" s="12" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="12"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A95" s="9"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="9"/>
-      <c r="B96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="12"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="9"/>
-      <c r="B97" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="12"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="9"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="9"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="9"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
     </row>
     <row r="104" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="9"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="9"/>
-      <c r="B107" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="12"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
     </row>
     <row r="109" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
     </row>
     <row r="112" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
     </row>
     <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="117" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1890,340 +1909,340 @@
     <row r="121" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A123" s="10"/>
+      <c r="B123" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="60.75" customHeight="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="10"/>
+      <c r="B124" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="12" t="s">
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A125" s="10"/>
+      <c r="B125" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C124" s="12"/>
-    </row>
-    <row r="125" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C125" s="12"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
     </row>
     <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
     </row>
     <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="9"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
     </row>
     <row r="130" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="9"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="9"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
     </row>
     <row r="133" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="10"/>
+      <c r="B136" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="15" t="s">
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="10"/>
+      <c r="B137" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="12"/>
-    </row>
-    <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C137" s="12"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" s="12"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="10"/>
+      <c r="B139" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="10"/>
+      <c r="B140" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="12"/>
-    </row>
-    <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="15" t="s">
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="10"/>
+      <c r="B141" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="12"/>
-    </row>
-    <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="15" t="s">
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="66" customHeight="1">
+      <c r="A142" s="10"/>
+      <c r="B142" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="12"/>
-    </row>
-    <row r="142" spans="1:3" ht="66" customHeight="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="15" t="s">
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="10"/>
+      <c r="B143" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C142" s="12"/>
-    </row>
-    <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="12"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
     </row>
     <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
     </row>
     <row r="146" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
     </row>
     <row r="148" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
     </row>
     <row r="149" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
     </row>
     <row r="151" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="9"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9"/>
+      <c r="A153" s="10"/>
     </row>
     <row r="154" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9"/>
+      <c r="A154" s="10"/>
     </row>
     <row r="155" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="9"/>
+      <c r="A155" s="10"/>
     </row>
     <row r="156" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="9"/>
+      <c r="A156" s="10"/>
     </row>
     <row r="157" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="9"/>
+      <c r="A157" s="10"/>
     </row>
     <row r="158" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9"/>
+      <c r="A158" s="10"/>
     </row>
     <row r="159" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9"/>
+      <c r="A159" s="10"/>
     </row>
     <row r="160" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="9"/>
+      <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="9"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="162" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="9"/>
+      <c r="A162" s="10"/>
     </row>
     <row r="163" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="9"/>
+      <c r="A163" s="10"/>
     </row>
     <row r="164" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="9"/>
+      <c r="A164" s="10"/>
     </row>
     <row r="165" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="167" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A168" s="10"/>
+      <c r="B168" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A169" s="10"/>
+      <c r="B169" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="11"/>
+    </row>
+    <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A170" s="10"/>
+      <c r="B170" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C168" s="12"/>
-    </row>
-    <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C169" s="12"/>
-    </row>
-    <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="9"/>
-      <c r="B170" s="15" t="s">
+      <c r="C170" s="11"/>
+    </row>
+    <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A171" s="10"/>
+      <c r="B171" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C170" s="12"/>
-    </row>
-    <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="9"/>
-      <c r="B171" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C171" s="12"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="9"/>
-      <c r="B172" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" s="12"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="9"/>
-      <c r="B173" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C173" s="12"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" s="11"/>
     </row>
     <row r="174" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="9"/>
-      <c r="B174" s="15" t="s">
+      <c r="A174" s="10"/>
+      <c r="B174" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="1:3" ht="33" customHeight="1">
+      <c r="A175" s="10"/>
+      <c r="B175" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="10"/>
+      <c r="B176" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C174" s="12"/>
-    </row>
-    <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="9"/>
-      <c r="B175" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175" s="12"/>
-    </row>
-    <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="9"/>
-      <c r="B176" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="12"/>
+      <c r="C176" s="11"/>
     </row>
     <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
     </row>
     <row r="178" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
     </row>
     <row r="181" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
     </row>
     <row r="198" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="9"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="10"/>
+      <c r="B199" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="11"/>
+    </row>
+    <row r="200" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A200" s="10"/>
+      <c r="B200" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="11"/>
+    </row>
+    <row r="201" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A201" s="10"/>
+      <c r="B201" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C199" s="12"/>
-    </row>
-    <row r="200" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="9"/>
-      <c r="B200" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C200" s="12"/>
-    </row>
-    <row r="201" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="9"/>
-      <c r="B201" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C201" s="12"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
     </row>
     <row r="203" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
     </row>
     <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C205" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C205" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="125">
